--- a/Hashi/ECLiPSe/Results.xlsx
+++ b/Hashi/ECLiPSe/Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\APLAI\Hashi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\APLAI\hashi\eclipse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BCD86-E6F3-4F4F-8340-2487A2E9CC5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613BB31-D1D5-4D9A-866D-8191AA6AE80E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{B8F281DE-28E2-47BE-9944-221AC3DABE22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" activeTab="1" xr2:uid="{B8F281DE-28E2-47BE-9944-221AC3DABE22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Puzzle</t>
   </si>
@@ -69,6 +70,27 @@
   </si>
   <si>
     <t>Total ~= inf s CPU</t>
+  </si>
+  <si>
+    <t>Puzzle 1</t>
+  </si>
+  <si>
+    <t>Puzzle 2</t>
+  </si>
+  <si>
+    <t>Puzzle 3</t>
+  </si>
+  <si>
+    <t>Puzzle 4</t>
+  </si>
+  <si>
+    <t>Puzzle 5</t>
+  </si>
+  <si>
+    <t>Puzzle 6</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -153,6 +175,3623 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>first_fail - cpu </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>time (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$H$2:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puzzle 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Puzzle 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puzzle 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Puzzle 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puzzle 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C9-40E9-836B-6A04901C3379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571397136"/>
+        <c:axId val="571397464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571397136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571397464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571397464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571397136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>input_order - cpu time (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$H$2:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puzzle 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Puzzle 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puzzle 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Puzzle 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puzzle 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47E0-4E03-A9DE-275755A9CA30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="433131488"/>
+        <c:axId val="433132800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="433131488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433132800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433132800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433131488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>input_order - # backtracks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$H$2:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puzzle 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Puzzle 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puzzle 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Puzzle 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puzzle 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CA0-45CB-8B03-D44918CCEB27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="568721968"/>
+        <c:axId val="568722952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="568721968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568722952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568722952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568721968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>first_fail</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> - # backtracks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$H$2:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Puzzle 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Puzzle 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Puzzle 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Puzzle 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puzzle 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-594B-49D8-8E46-B50943B271D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="440726608"/>
+        <c:axId val="440727264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440726608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440727264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440727264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440726608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F021D355-ECAD-4B23-9E9D-E20F85723228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871FCB57-179B-48D8-A883-5B78D9D91A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A60422-6F77-470A-AD26-2BF794000E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E860E0-4EF6-451F-8585-024326B57E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46D08CC-3566-454D-9473-C96DDBCAC853}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +4106,7 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -476,7 +4115,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,8 +4131,25 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <f>SUM(D3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(D14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,8 +4165,25 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D4:E4)</f>
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <f>SUM(D15:E15)</f>
+        <v>4688</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3673</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -526,8 +4199,25 @@
       <c r="E4" s="2">
         <v>78</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <f>SUM(D5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM(D16:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -543,8 +4233,25 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <f>SUM(D6:E6)</f>
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <f>SUM(D17:E17)</f>
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -560,8 +4267,25 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <f>SUM(D7:E7)</f>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f>SUM(D18:E18)</f>
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -577,8 +4301,25 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D8:E8)</f>
+        <v>342</v>
+      </c>
+      <c r="J7">
+        <f>SUM(D19:E19)</f>
+        <v>19656</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>31710</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -594,13 +4335,32 @@
       <c r="E8" s="2">
         <v>326</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <f>SUM(D3:E8)</f>
+        <v>467</v>
+      </c>
+      <c r="J8">
+        <f>SUM(J2:J7)</f>
+        <v>24391</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K2:K7)</f>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L2:L7)</f>
+        <v>35413</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -609,7 +4369,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -643,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -660,7 +4420,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -979,4 +4739,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D719A51E-A4C5-457C-B8AC-385CC1AC4407}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>